--- a/HRBackend/uploads/promech.xlsx
+++ b/HRBackend/uploads/promech.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DC7512-753B-4298-BBA0-F245140C31BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD254C79-A1A0-44D4-9EFA-DD0514B63F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7234" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7066" uniqueCount="531">
   <si>
     <t>AC-No.</t>
   </si>
@@ -1414,9 +1414,6 @@
     <t>89</t>
   </si>
   <si>
-    <t>86</t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
@@ -1610,69 +1607,6 @@
   </si>
   <si>
     <t>09:55</t>
-  </si>
-  <si>
-    <t>Msaed promch2</t>
-  </si>
-  <si>
-    <t>Msaed promch3</t>
-  </si>
-  <si>
-    <t>Msaed promch4</t>
-  </si>
-  <si>
-    <t>Msaed promch5</t>
-  </si>
-  <si>
-    <t>Msaed promch6</t>
-  </si>
-  <si>
-    <t>Msaed promch7</t>
-  </si>
-  <si>
-    <t>Msaed promch8</t>
-  </si>
-  <si>
-    <t>Msaed promch9</t>
-  </si>
-  <si>
-    <t>Msaed promch10</t>
-  </si>
-  <si>
-    <t>Msaed promch11</t>
-  </si>
-  <si>
-    <t>Msaed promch12</t>
-  </si>
-  <si>
-    <t>Msaed promch13</t>
-  </si>
-  <si>
-    <t>Msaed promch14</t>
-  </si>
-  <si>
-    <t>Msaed promch15</t>
-  </si>
-  <si>
-    <t>Msaed promch16</t>
-  </si>
-  <si>
-    <t>Msaed promch17</t>
-  </si>
-  <si>
-    <t>Msaed promch18</t>
-  </si>
-  <si>
-    <t>Msaed promch19</t>
-  </si>
-  <si>
-    <t>Msaed promch20</t>
-  </si>
-  <si>
-    <t>Msaed promch21</t>
-  </si>
-  <si>
-    <t>Msaed promch22</t>
   </si>
   <si>
     <t>mission</t>
@@ -2025,15 +1959,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J904"/>
+  <dimension ref="A1:J883"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="N185" sqref="N185"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P643" sqref="P643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2062,10 +1997,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -20298,10 +20233,10 @@
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A653" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>530</v>
+        <v>465</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>11</v>
@@ -20326,10 +20261,10 @@
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A654" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>15</v>
@@ -20338,26 +20273,26 @@
         <v>9</v>
       </c>
       <c r="E654" s="2" t="s">
-        <v>9</v>
+        <v>343</v>
       </c>
       <c r="F654" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G654" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H654" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I654" s="3"/>
       <c r="J654" s="3"/>
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A655" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>532</v>
+        <v>465</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>19</v>
@@ -20382,10 +20317,10 @@
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A656" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>533</v>
+        <v>465</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>24</v>
@@ -20410,234 +20345,234 @@
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A657" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>534</v>
+        <v>465</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>9</v>
+        <v>466</v>
       </c>
       <c r="E657" s="2" t="s">
-        <v>9</v>
+        <v>467</v>
       </c>
       <c r="F657" s="2" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="G657" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H657" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I657" s="3"/>
       <c r="J657" s="3"/>
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A658" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>535</v>
+        <v>465</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>9</v>
+        <v>334</v>
       </c>
       <c r="E658" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F658" s="2" t="s">
-        <v>9</v>
+        <v>335</v>
       </c>
       <c r="G658" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H658" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I658" s="3"/>
       <c r="J658" s="3"/>
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A659" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>536</v>
+        <v>465</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>9</v>
+        <v>326</v>
       </c>
       <c r="E659" s="2" t="s">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="F659" s="2" t="s">
-        <v>9</v>
+        <v>328</v>
       </c>
       <c r="G659" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H659" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I659" s="3"/>
       <c r="J659" s="3"/>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A660" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>537</v>
+        <v>465</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="E660" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F660" s="2" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="G660" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H660" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I660" s="3"/>
       <c r="J660" s="3"/>
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A661" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>538</v>
+        <v>465</v>
       </c>
       <c r="C661" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="E661" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F661" s="2" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="G661" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H661" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I661" s="3"/>
       <c r="J661" s="3"/>
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A662" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>539</v>
+        <v>465</v>
       </c>
       <c r="C662" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>9</v>
+        <v>468</v>
       </c>
       <c r="E662" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F662" s="2" t="s">
-        <v>9</v>
+        <v>469</v>
       </c>
       <c r="G662" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H662" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I662" s="3"/>
       <c r="J662" s="3"/>
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A663" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>540</v>
+        <v>465</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="E663" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F663" s="2" t="s">
-        <v>9</v>
+        <v>381</v>
       </c>
       <c r="G663" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H663" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I663" s="3"/>
       <c r="J663" s="3"/>
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A664" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>9</v>
+        <v>374</v>
       </c>
       <c r="E664" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F664" s="2" t="s">
-        <v>9</v>
+        <v>376</v>
       </c>
       <c r="G664" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H664" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I664" s="3"/>
       <c r="J664" s="3"/>
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A665" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>542</v>
+        <v>465</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>57</v>
@@ -20662,234 +20597,234 @@
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A666" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>543</v>
+        <v>465</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>9</v>
+        <v>307</v>
       </c>
       <c r="E666" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F666" s="2" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="G666" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H666" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I666" s="3"/>
       <c r="J666" s="3"/>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A667" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>544</v>
+        <v>465</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>9</v>
+        <v>470</v>
       </c>
       <c r="F667" s="2" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="G667" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H667" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I667" s="3"/>
       <c r="J667" s="3"/>
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A668" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>545</v>
+        <v>465</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="E668" s="2" t="s">
-        <v>9</v>
+        <v>393</v>
       </c>
       <c r="F668" s="2" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="G668" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H668" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I668" s="3"/>
       <c r="J668" s="3"/>
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A669" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>546</v>
+        <v>465</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>9</v>
+        <v>322</v>
       </c>
       <c r="E669" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F669" s="2" t="s">
-        <v>9</v>
+        <v>324</v>
       </c>
       <c r="G669" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H669" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I669" s="3"/>
       <c r="J669" s="3"/>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A670" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>547</v>
+        <v>465</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>9</v>
+        <v>322</v>
       </c>
       <c r="E670" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F670" s="2" t="s">
-        <v>9</v>
+        <v>324</v>
       </c>
       <c r="G670" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H670" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I670" s="3"/>
       <c r="J670" s="3"/>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A671" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>548</v>
+        <v>465</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="E671" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F671" s="2" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
       <c r="G671" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H671" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I671" s="3"/>
       <c r="J671" s="3"/>
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A672" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>549</v>
+        <v>465</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>9</v>
+        <v>404</v>
       </c>
       <c r="E672" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F672" s="2" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="G672" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H672" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I672" s="3"/>
       <c r="J672" s="3"/>
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A673" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>550</v>
+        <v>465</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="E673" s="2" t="s">
-        <v>9</v>
+        <v>471</v>
       </c>
       <c r="F673" s="2" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="G673" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H673" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I673" s="3"/>
       <c r="J673" s="3"/>
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A674" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>11</v>
@@ -20914,22 +20849,22 @@
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A675" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E675" s="2" t="s">
-        <v>343</v>
+        <v>473</v>
       </c>
       <c r="F675" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="G675" s="2" t="s">
         <v>9</v>
@@ -20942,78 +20877,78 @@
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A676" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>9</v>
+        <v>366</v>
       </c>
       <c r="E676" s="2" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="F676" s="2" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="G676" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H676" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I676" s="3"/>
       <c r="J676" s="3"/>
     </row>
     <row r="677" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A677" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E677" s="2" t="s">
-        <v>9</v>
+        <v>474</v>
       </c>
       <c r="F677" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G677" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H677" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I677" s="3"/>
       <c r="J677" s="3"/>
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A678" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>467</v>
+        <v>68</v>
       </c>
       <c r="E678" s="2" t="s">
-        <v>468</v>
+        <v>323</v>
       </c>
       <c r="F678" s="2" t="s">
-        <v>228</v>
+        <v>70</v>
       </c>
       <c r="G678" s="2" t="s">
         <v>9</v>
@@ -21026,22 +20961,22 @@
     </row>
     <row r="679" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A679" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="E679" s="2" t="s">
-        <v>21</v>
+        <v>375</v>
       </c>
       <c r="F679" s="2" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="G679" s="2" t="s">
         <v>9</v>
@@ -21054,22 +20989,22 @@
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A680" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>326</v>
+        <v>35</v>
       </c>
       <c r="E680" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F680" s="2" t="s">
-        <v>328</v>
+        <v>36</v>
       </c>
       <c r="G680" s="2" t="s">
         <v>9</v>
@@ -21082,22 +21017,22 @@
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A681" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>104</v>
+        <v>292</v>
       </c>
       <c r="E681" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F681" s="2" t="s">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="G681" s="2" t="s">
         <v>33</v>
@@ -21110,22 +21045,22 @@
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A682" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="E682" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F682" s="2" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="G682" s="2" t="s">
         <v>33</v>
@@ -21138,22 +21073,22 @@
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A683" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>469</v>
+        <v>206</v>
       </c>
       <c r="E683" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F683" s="2" t="s">
-        <v>470</v>
+        <v>207</v>
       </c>
       <c r="G683" s="2" t="s">
         <v>33</v>
@@ -21166,22 +21101,22 @@
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A684" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>380</v>
+        <v>137</v>
       </c>
       <c r="E684" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F684" s="2" t="s">
-        <v>381</v>
+        <v>138</v>
       </c>
       <c r="G684" s="2" t="s">
         <v>33</v>
@@ -21194,22 +21129,22 @@
     </row>
     <row r="685" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A685" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>374</v>
+        <v>206</v>
       </c>
       <c r="E685" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F685" s="2" t="s">
-        <v>376</v>
+        <v>207</v>
       </c>
       <c r="G685" s="2" t="s">
         <v>33</v>
@@ -21222,50 +21157,50 @@
     </row>
     <row r="686" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A686" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E686" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F686" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="G686" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H686" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I686" s="3"/>
       <c r="J686" s="3"/>
     </row>
     <row r="687" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A687" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>307</v>
+        <v>150</v>
       </c>
       <c r="E687" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F687" s="2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="G687" s="2" t="s">
         <v>33</v>
@@ -21278,22 +21213,22 @@
     </row>
     <row r="688" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A688" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="E688" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F688" s="2" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="G688" s="2" t="s">
         <v>9</v>
@@ -21306,162 +21241,162 @@
     </row>
     <row r="689" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A689" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="E689" s="2" t="s">
-        <v>393</v>
+        <v>9</v>
       </c>
       <c r="F689" s="2" t="s">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="G689" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H689" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I689" s="3"/>
       <c r="J689" s="3"/>
     </row>
     <row r="690" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A690" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>322</v>
+        <v>9</v>
       </c>
       <c r="E690" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F690" s="2" t="s">
-        <v>324</v>
+        <v>9</v>
       </c>
       <c r="G690" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H690" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I690" s="3"/>
       <c r="J690" s="3"/>
     </row>
     <row r="691" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A691" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>322</v>
+        <v>9</v>
       </c>
       <c r="E691" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F691" s="2" t="s">
-        <v>324</v>
+        <v>9</v>
       </c>
       <c r="G691" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H691" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I691" s="3"/>
       <c r="J691" s="3"/>
     </row>
     <row r="692" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A692" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C692" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D692" s="2" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="E692" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F692" s="2" t="s">
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="G692" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H692" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I692" s="3"/>
       <c r="J692" s="3"/>
     </row>
     <row r="693" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A693" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D693" s="2" t="s">
-        <v>404</v>
+        <v>9</v>
       </c>
       <c r="E693" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F693" s="2" t="s">
-        <v>405</v>
+        <v>9</v>
       </c>
       <c r="G693" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H693" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I693" s="3"/>
       <c r="J693" s="3"/>
     </row>
     <row r="694" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A694" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E694" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F694" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G694" s="2" t="s">
         <v>9</v>
@@ -21474,10 +21409,10 @@
     </row>
     <row r="695" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A695" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C695" s="2" t="s">
         <v>11</v>
@@ -21502,22 +21437,22 @@
     </row>
     <row r="696" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A696" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C696" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D696" s="2" t="s">
-        <v>68</v>
+        <v>478</v>
       </c>
       <c r="E696" s="2" t="s">
-        <v>474</v>
+        <v>378</v>
       </c>
       <c r="F696" s="2" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="G696" s="2" t="s">
         <v>9</v>
@@ -21530,22 +21465,22 @@
     </row>
     <row r="697" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A697" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C697" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>366</v>
+        <v>38</v>
       </c>
       <c r="E697" s="2" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="F697" s="2" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="G697" s="2" t="s">
         <v>9</v>
@@ -21558,22 +21493,22 @@
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A698" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C698" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E698" s="2" t="s">
-        <v>475</v>
+        <v>145</v>
       </c>
       <c r="F698" s="2" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="G698" s="2" t="s">
         <v>9</v>
@@ -21586,22 +21521,22 @@
     </row>
     <row r="699" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A699" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C699" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D699" s="2" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="E699" s="2" t="s">
-        <v>323</v>
+        <v>176</v>
       </c>
       <c r="F699" s="2" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="G699" s="2" t="s">
         <v>9</v>
@@ -21614,22 +21549,22 @@
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A700" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C700" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D700" s="2" t="s">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="E700" s="2" t="s">
-        <v>375</v>
+        <v>474</v>
       </c>
       <c r="F700" s="2" t="s">
-        <v>269</v>
+        <v>39</v>
       </c>
       <c r="G700" s="2" t="s">
         <v>9</v>
@@ -21642,22 +21577,22 @@
     </row>
     <row r="701" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A701" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C701" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="E701" s="2" t="s">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c r="F701" s="2" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="G701" s="2" t="s">
         <v>9</v>
@@ -21670,25 +21605,25 @@
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A702" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C702" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>292</v>
+        <v>205</v>
       </c>
       <c r="E702" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="F702" s="2" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="G702" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H702" s="2" t="s">
         <v>9</v>
@@ -21698,25 +21633,25 @@
     </row>
     <row r="703" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A703" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E703" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="F703" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G703" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H703" s="2" t="s">
         <v>9</v>
@@ -21726,25 +21661,25 @@
     </row>
     <row r="704" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A704" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C704" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E704" s="2" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="F704" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="G704" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H704" s="2" t="s">
         <v>9</v>
@@ -21754,25 +21689,25 @@
     </row>
     <row r="705" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A705" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C705" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E705" s="2" t="s">
-        <v>9</v>
+        <v>359</v>
       </c>
       <c r="F705" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="G705" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H705" s="2" t="s">
         <v>9</v>
@@ -21782,25 +21717,25 @@
     </row>
     <row r="706" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A706" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C706" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D706" s="2" t="s">
-        <v>206</v>
+        <v>38</v>
       </c>
       <c r="E706" s="2" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="F706" s="2" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="G706" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H706" s="2" t="s">
         <v>9</v>
@@ -21810,25 +21745,25 @@
     </row>
     <row r="707" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A707" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C707" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D707" s="2" t="s">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="E707" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F707" s="2" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="G707" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H707" s="2" t="s">
         <v>9</v>
@@ -21838,50 +21773,50 @@
     </row>
     <row r="708" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A708" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C708" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D708" s="2" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="E708" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F708" s="2" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="G708" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H708" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I708" s="3"/>
       <c r="J708" s="3"/>
     </row>
     <row r="709" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A709" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D709" s="2" t="s">
-        <v>274</v>
+        <v>366</v>
       </c>
       <c r="E709" s="2" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="F709" s="2" t="s">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="G709" s="2" t="s">
         <v>9</v>
@@ -21894,10 +21829,10 @@
     </row>
     <row r="710" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A710" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C710" s="2" t="s">
         <v>63</v>
@@ -21922,137 +21857,137 @@
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A711" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C711" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D711" s="2" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="E711" s="2" t="s">
-        <v>9</v>
+        <v>278</v>
       </c>
       <c r="F711" s="2" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="G711" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H711" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I711" s="3"/>
       <c r="J711" s="3"/>
     </row>
     <row r="712" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A712" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C712" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D712" s="2" t="s">
-        <v>9</v>
+        <v>214</v>
       </c>
       <c r="E712" s="2" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="F712" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G712" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H712" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I712" s="3"/>
       <c r="J712" s="3"/>
     </row>
     <row r="713" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A713" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C713" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D713" s="2" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E713" s="2" t="s">
-        <v>9</v>
+        <v>481</v>
       </c>
       <c r="F713" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="G713" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H713" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I713" s="3"/>
       <c r="J713" s="3"/>
     </row>
     <row r="714" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A714" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C714" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>9</v>
+        <v>346</v>
       </c>
       <c r="E714" s="2" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="F714" s="2" t="s">
-        <v>9</v>
+        <v>436</v>
       </c>
       <c r="G714" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H714" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I714" s="3"/>
       <c r="J714" s="3"/>
     </row>
     <row r="715" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A715" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C715" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="E715" s="2" t="s">
-        <v>476</v>
+        <v>9</v>
       </c>
       <c r="F715" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="G715" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H715" s="2" t="s">
         <v>9</v>
@@ -22062,10 +21997,10 @@
     </row>
     <row r="716" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A716" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C716" s="2" t="s">
         <v>11</v>
@@ -22090,19 +22025,19 @@
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A717" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C717" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>479</v>
+        <v>254</v>
       </c>
       <c r="E717" s="2" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="F717" s="2" t="s">
         <v>9</v>
@@ -22118,22 +22053,22 @@
     </row>
     <row r="718" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A718" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C718" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>38</v>
+        <v>478</v>
       </c>
       <c r="E718" s="2" t="s">
-        <v>480</v>
+        <v>432</v>
       </c>
       <c r="F718" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="G718" s="2" t="s">
         <v>9</v>
@@ -22146,25 +22081,25 @@
     </row>
     <row r="719" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A719" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C719" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D719" s="2" t="s">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="E719" s="2" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="F719" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="G719" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="H719" s="2" t="s">
         <v>9</v>
@@ -22174,22 +22109,22 @@
     </row>
     <row r="720" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A720" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C720" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D720" s="2" t="s">
-        <v>152</v>
+        <v>484</v>
       </c>
       <c r="E720" s="2" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="F720" s="2" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="G720" s="2" t="s">
         <v>9</v>
@@ -22202,22 +22137,22 @@
     </row>
     <row r="721" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A721" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C721" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D721" s="2" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="E721" s="2" t="s">
-        <v>475</v>
+        <v>393</v>
       </c>
       <c r="F721" s="2" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="G721" s="2" t="s">
         <v>9</v>
@@ -22230,22 +22165,22 @@
     </row>
     <row r="722" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A722" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C722" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="E722" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F722" s="2" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="G722" s="2" t="s">
         <v>9</v>
@@ -22258,25 +22193,25 @@
     </row>
     <row r="723" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A723" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C723" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="E723" s="2" t="s">
-        <v>43</v>
+        <v>485</v>
       </c>
       <c r="F723" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G723" s="2" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="H723" s="2" t="s">
         <v>9</v>
@@ -22286,25 +22221,25 @@
     </row>
     <row r="724" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A724" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C724" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>25</v>
+        <v>274</v>
       </c>
       <c r="E724" s="2" t="s">
-        <v>43</v>
+        <v>486</v>
       </c>
       <c r="F724" s="2" t="s">
-        <v>9</v>
+        <v>275</v>
       </c>
       <c r="G724" s="2" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="H724" s="2" t="s">
         <v>9</v>
@@ -22314,22 +22249,22 @@
     </row>
     <row r="725" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A725" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C725" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E725" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F725" s="2" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
       <c r="G725" s="2" t="s">
         <v>9</v>
@@ -22342,25 +22277,25 @@
     </row>
     <row r="726" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A726" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C726" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="E726" s="2" t="s">
-        <v>359</v>
+        <v>487</v>
       </c>
       <c r="F726" s="2" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="G726" s="2" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="H726" s="2" t="s">
         <v>9</v>
@@ -22370,25 +22305,25 @@
     </row>
     <row r="727" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A727" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C727" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E727" s="2" t="s">
-        <v>199</v>
+        <v>488</v>
       </c>
       <c r="F727" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="G727" s="2" t="s">
-        <v>9</v>
+        <v>442</v>
       </c>
       <c r="H727" s="2" t="s">
         <v>9</v>
@@ -22398,25 +22333,25 @@
     </row>
     <row r="728" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A728" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C728" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E728" s="2" t="s">
-        <v>21</v>
+        <v>489</v>
       </c>
       <c r="F728" s="2" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="G728" s="2" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="H728" s="2" t="s">
         <v>9</v>
@@ -22426,75 +22361,75 @@
     </row>
     <row r="729" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A729" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C729" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D729" s="2" t="s">
-        <v>9</v>
+        <v>258</v>
       </c>
       <c r="E729" s="2" t="s">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="F729" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G729" s="2" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
       <c r="H729" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I729" s="3"/>
       <c r="J729" s="3"/>
     </row>
     <row r="730" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A730" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C730" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>366</v>
+        <v>9</v>
       </c>
       <c r="E730" s="2" t="s">
-        <v>481</v>
+        <v>9</v>
       </c>
       <c r="F730" s="2" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="G730" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H730" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I730" s="3"/>
       <c r="J730" s="3"/>
     </row>
     <row r="731" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A731" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C731" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D731" s="2" t="s">
-        <v>9</v>
+        <v>350</v>
       </c>
       <c r="E731" s="2" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="F731" s="2" t="s">
         <v>9</v>
@@ -22503,32 +22438,32 @@
         <v>9</v>
       </c>
       <c r="H731" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I731" s="3"/>
       <c r="J731" s="3"/>
     </row>
     <row r="732" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A732" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C732" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D732" s="2" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="E732" s="2" t="s">
-        <v>278</v>
+        <v>215</v>
       </c>
       <c r="F732" s="2" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="G732" s="2" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="H732" s="2" t="s">
         <v>9</v>
@@ -22538,22 +22473,22 @@
     </row>
     <row r="733" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A733" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C733" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="E733" s="2" t="s">
-        <v>199</v>
+        <v>327</v>
       </c>
       <c r="F733" s="2" t="s">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="G733" s="2" t="s">
         <v>9</v>
@@ -22566,22 +22501,22 @@
     </row>
     <row r="734" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A734" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C734" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E734" s="2" t="s">
-        <v>482</v>
+        <v>54</v>
       </c>
       <c r="F734" s="2" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="G734" s="2" t="s">
         <v>9</v>
@@ -22594,22 +22529,22 @@
     </row>
     <row r="735" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A735" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C735" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>346</v>
+        <v>490</v>
       </c>
       <c r="E735" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F735" s="2" t="s">
-        <v>436</v>
+        <v>9</v>
       </c>
       <c r="G735" s="2" t="s">
         <v>9</v>
@@ -22622,22 +22557,22 @@
     </row>
     <row r="736" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A736" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C736" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E736" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F736" s="2" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="G736" s="2" t="s">
         <v>33</v>
@@ -22650,10 +22585,10 @@
     </row>
     <row r="737" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A737" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C737" s="2" t="s">
         <v>11</v>
@@ -22678,19 +22613,19 @@
     </row>
     <row r="738" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A738" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C738" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>254</v>
+        <v>9</v>
       </c>
       <c r="E738" s="2" t="s">
-        <v>432</v>
+        <v>9</v>
       </c>
       <c r="F738" s="2" t="s">
         <v>9</v>
@@ -22699,32 +22634,32 @@
         <v>9</v>
       </c>
       <c r="H738" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I738" s="3"/>
       <c r="J738" s="3"/>
     </row>
     <row r="739" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A739" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C739" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D739" s="2" t="s">
-        <v>479</v>
+        <v>394</v>
       </c>
       <c r="E739" s="2" t="s">
-        <v>432</v>
+        <v>492</v>
       </c>
       <c r="F739" s="2" t="s">
-        <v>9</v>
+        <v>493</v>
       </c>
       <c r="G739" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="H739" s="2" t="s">
         <v>9</v>
@@ -22734,25 +22669,25 @@
     </row>
     <row r="740" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A740" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C740" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>259</v>
+        <v>494</v>
       </c>
       <c r="E740" s="2" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="F740" s="2" t="s">
-        <v>9</v>
+        <v>398</v>
       </c>
       <c r="G740" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H740" s="2" t="s">
         <v>9</v>
@@ -22762,19 +22697,19 @@
     </row>
     <row r="741" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A741" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C741" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D741" s="2" t="s">
-        <v>485</v>
+        <v>9</v>
       </c>
       <c r="E741" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F741" s="2" t="s">
         <v>9</v>
@@ -22783,101 +22718,101 @@
         <v>9</v>
       </c>
       <c r="H741" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I741" s="3"/>
       <c r="J741" s="3"/>
     </row>
     <row r="742" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A742" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C742" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="E742" s="2" t="s">
-        <v>393</v>
+        <v>9</v>
       </c>
       <c r="F742" s="2" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="G742" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H742" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I742" s="3"/>
       <c r="J742" s="3"/>
     </row>
     <row r="743" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A743" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C743" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D743" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E743" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F743" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="G743" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H743" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I743" s="3"/>
       <c r="J743" s="3"/>
     </row>
     <row r="744" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A744" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C744" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="E744" s="2" t="s">
-        <v>486</v>
+        <v>9</v>
       </c>
       <c r="F744" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G744" s="2" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="H744" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I744" s="3"/>
       <c r="J744" s="3"/>
     </row>
     <row r="745" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A745" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C745" s="2" t="s">
         <v>41</v>
@@ -22886,13 +22821,13 @@
         <v>274</v>
       </c>
       <c r="E745" s="2" t="s">
-        <v>487</v>
+        <v>9</v>
       </c>
       <c r="F745" s="2" t="s">
         <v>275</v>
       </c>
       <c r="G745" s="2" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="H745" s="2" t="s">
         <v>9</v>
@@ -22902,25 +22837,25 @@
     </row>
     <row r="746" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A746" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C746" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="E746" s="2" t="s">
-        <v>69</v>
+        <v>495</v>
       </c>
       <c r="F746" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G746" s="2" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="H746" s="2" t="s">
         <v>9</v>
@@ -22930,109 +22865,109 @@
     </row>
     <row r="747" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A747" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C747" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>258</v>
+        <v>9</v>
       </c>
       <c r="E747" s="2" t="s">
-        <v>488</v>
+        <v>9</v>
       </c>
       <c r="F747" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G747" s="2" t="s">
-        <v>440</v>
+        <v>9</v>
       </c>
       <c r="H747" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I747" s="3"/>
       <c r="J747" s="3"/>
     </row>
     <row r="748" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A748" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C748" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E748" s="2" t="s">
-        <v>489</v>
+        <v>9</v>
       </c>
       <c r="F748" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G748" s="2" t="s">
-        <v>442</v>
+        <v>9</v>
       </c>
       <c r="H748" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I748" s="3"/>
       <c r="J748" s="3"/>
     </row>
     <row r="749" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A749" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C749" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D749" s="2" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="E749" s="2" t="s">
-        <v>490</v>
+        <v>9</v>
       </c>
       <c r="F749" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G749" s="2" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
       <c r="H749" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I749" s="3"/>
       <c r="J749" s="3"/>
     </row>
     <row r="750" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A750" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C750" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>258</v>
+        <v>9</v>
       </c>
       <c r="E750" s="2" t="s">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="F750" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G750" s="2" t="s">
-        <v>221</v>
+        <v>9</v>
       </c>
       <c r="H750" s="2" t="s">
         <v>9</v>
@@ -23042,16 +22977,16 @@
     </row>
     <row r="751" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A751" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C751" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D751" s="2" t="s">
-        <v>9</v>
+        <v>478</v>
       </c>
       <c r="E751" s="2" t="s">
         <v>9</v>
@@ -23060,29 +22995,29 @@
         <v>9</v>
       </c>
       <c r="G751" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H751" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I751" s="3"/>
       <c r="J751" s="3"/>
     </row>
     <row r="752" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A752" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C752" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D752" s="2" t="s">
-        <v>350</v>
+        <v>9</v>
       </c>
       <c r="E752" s="2" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="F752" s="2" t="s">
         <v>9</v>
@@ -23091,113 +23026,113 @@
         <v>9</v>
       </c>
       <c r="H752" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I752" s="3"/>
       <c r="J752" s="3"/>
     </row>
     <row r="753" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A753" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C753" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D753" s="2" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="E753" s="2" t="s">
-        <v>215</v>
+        <v>9</v>
       </c>
       <c r="F753" s="2" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="G753" s="2" t="s">
-        <v>217</v>
+        <v>9</v>
       </c>
       <c r="H753" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I753" s="3"/>
       <c r="J753" s="3"/>
     </row>
     <row r="754" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A754" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C754" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="E754" s="2" t="s">
-        <v>327</v>
+        <v>9</v>
       </c>
       <c r="F754" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="G754" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H754" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I754" s="3"/>
       <c r="J754" s="3"/>
     </row>
     <row r="755" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A755" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C755" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D755" s="2" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="E755" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F755" s="2" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="G755" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H755" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I755" s="3"/>
       <c r="J755" s="3"/>
     </row>
     <row r="756" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A756" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C756" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D756" s="2" t="s">
-        <v>491</v>
+        <v>9</v>
       </c>
       <c r="E756" s="2" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="F756" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G756" s="2" t="s">
         <v>9</v>
@@ -23210,16 +23145,16 @@
     </row>
     <row r="757" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A757" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C757" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D757" s="2" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="E757" s="2" t="s">
         <v>9</v>
@@ -23228,20 +23163,20 @@
         <v>9</v>
       </c>
       <c r="G757" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H757" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I757" s="3"/>
       <c r="J757" s="3"/>
     </row>
     <row r="758" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A758" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C758" s="2" t="s">
         <v>11</v>
@@ -23266,81 +23201,81 @@
     </row>
     <row r="759" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A759" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C759" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D759" s="2" t="s">
-        <v>9</v>
+        <v>214</v>
       </c>
       <c r="E759" s="2" t="s">
-        <v>9</v>
+        <v>498</v>
       </c>
       <c r="F759" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G759" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H759" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I759" s="3"/>
       <c r="J759" s="3"/>
     </row>
     <row r="760" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A760" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C760" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D760" s="2" t="s">
-        <v>394</v>
+        <v>9</v>
       </c>
       <c r="E760" s="2" t="s">
-        <v>493</v>
+        <v>9</v>
       </c>
       <c r="F760" s="2" t="s">
-        <v>494</v>
+        <v>9</v>
       </c>
       <c r="G760" s="2" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
       <c r="H760" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I760" s="3"/>
       <c r="J760" s="3"/>
     </row>
     <row r="761" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A761" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C761" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>495</v>
+        <v>38</v>
       </c>
       <c r="E761" s="2" t="s">
-        <v>9</v>
+        <v>319</v>
       </c>
       <c r="F761" s="2" t="s">
-        <v>398</v>
+        <v>39</v>
       </c>
       <c r="G761" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H761" s="2" t="s">
         <v>9</v>
@@ -23350,66 +23285,66 @@
     </row>
     <row r="762" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A762" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C762" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D762" s="2" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="E762" s="2" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="F762" s="2" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="G762" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H762" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I762" s="3"/>
       <c r="J762" s="3"/>
     </row>
     <row r="763" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A763" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C763" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D763" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E763" s="2" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="F763" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G763" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H763" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I763" s="3"/>
       <c r="J763" s="3"/>
     </row>
     <row r="764" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A764" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C764" s="2" t="s">
         <v>34</v>
@@ -23434,10 +23369,10 @@
     </row>
     <row r="765" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A765" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C765" s="2" t="s">
         <v>37</v>
@@ -23462,38 +23397,38 @@
     </row>
     <row r="766" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A766" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C766" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>274</v>
+        <v>9</v>
       </c>
       <c r="E766" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F766" s="2" t="s">
-        <v>275</v>
+        <v>9</v>
       </c>
       <c r="G766" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H766" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I766" s="3"/>
       <c r="J766" s="3"/>
     </row>
     <row r="767" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A767" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C767" s="2" t="s">
         <v>46</v>
@@ -23502,122 +23437,122 @@
         <v>9</v>
       </c>
       <c r="E767" s="2" t="s">
-        <v>496</v>
+        <v>9</v>
       </c>
       <c r="F767" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G767" s="2" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="H767" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I767" s="3"/>
       <c r="J767" s="3"/>
     </row>
     <row r="768" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A768" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C768" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D768" s="2" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="E768" s="2" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="F768" s="2" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="G768" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H768" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I768" s="3"/>
       <c r="J768" s="3"/>
     </row>
     <row r="769" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A769" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C769" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D769" s="2" t="s">
-        <v>9</v>
+        <v>214</v>
       </c>
       <c r="E769" s="2" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="F769" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="G769" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H769" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I769" s="3"/>
       <c r="J769" s="3"/>
     </row>
     <row r="770" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A770" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C770" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D770" s="2" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="E770" s="2" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="F770" s="2" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="G770" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H770" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I770" s="3"/>
       <c r="J770" s="3"/>
     </row>
     <row r="771" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A771" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C771" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D771" s="2" t="s">
-        <v>9</v>
+        <v>292</v>
       </c>
       <c r="E771" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F771" s="2" t="s">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="G771" s="2" t="s">
         <v>9</v>
@@ -23630,22 +23565,22 @@
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A772" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C772" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D772" s="2" t="s">
-        <v>479</v>
+        <v>42</v>
       </c>
       <c r="E772" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F772" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G772" s="2" t="s">
         <v>33</v>
@@ -23658,10 +23593,10 @@
     </row>
     <row r="773" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A773" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C773" s="2" t="s">
         <v>63</v>
@@ -23686,10 +23621,10 @@
     </row>
     <row r="774" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A774" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C774" s="2" t="s">
         <v>67</v>
@@ -23714,78 +23649,78 @@
     </row>
     <row r="775" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A775" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C775" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E775" s="2" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="F775" s="2" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="G775" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H775" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I775" s="3"/>
       <c r="J775" s="3"/>
     </row>
     <row r="776" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A776" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C776" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D776" s="2" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="E776" s="2" t="s">
-        <v>9</v>
+        <v>406</v>
       </c>
       <c r="F776" s="2" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="G776" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H776" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I776" s="3"/>
       <c r="J776" s="3"/>
     </row>
     <row r="777" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A777" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C777" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E777" s="2" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F777" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G777" s="2" t="s">
         <v>9</v>
@@ -23798,10 +23733,10 @@
     </row>
     <row r="778" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A778" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C778" s="2" t="s">
         <v>81</v>
@@ -23826,10 +23761,10 @@
     </row>
     <row r="779" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A779" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C779" s="2" t="s">
         <v>11</v>
@@ -23854,22 +23789,22 @@
     </row>
     <row r="780" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A780" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C780" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D780" s="2" t="s">
-        <v>214</v>
+        <v>360</v>
       </c>
       <c r="E780" s="2" t="s">
-        <v>499</v>
+        <v>21</v>
       </c>
       <c r="F780" s="2" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
       <c r="G780" s="2" t="s">
         <v>9</v>
@@ -23882,19 +23817,19 @@
     </row>
     <row r="781" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A781" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C781" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D781" s="2" t="s">
-        <v>9</v>
+        <v>478</v>
       </c>
       <c r="E781" s="2" t="s">
-        <v>9</v>
+        <v>278</v>
       </c>
       <c r="F781" s="2" t="s">
         <v>9</v>
@@ -23903,29 +23838,29 @@
         <v>9</v>
       </c>
       <c r="H781" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I781" s="3"/>
       <c r="J781" s="3"/>
     </row>
     <row r="782" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A782" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C782" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D782" s="2" t="s">
-        <v>38</v>
+        <v>284</v>
       </c>
       <c r="E782" s="2" t="s">
-        <v>319</v>
+        <v>21</v>
       </c>
       <c r="F782" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="G782" s="2" t="s">
         <v>9</v>
@@ -23938,22 +23873,22 @@
     </row>
     <row r="783" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A783" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C783" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D783" s="2" t="s">
-        <v>172</v>
+        <v>367</v>
       </c>
       <c r="E783" s="2" t="s">
-        <v>69</v>
+        <v>336</v>
       </c>
       <c r="F783" s="2" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="G783" s="2" t="s">
         <v>9</v>
@@ -23966,22 +23901,22 @@
     </row>
     <row r="784" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A784" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C784" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D784" s="2" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="E784" s="2" t="s">
-        <v>411</v>
+        <v>13</v>
       </c>
       <c r="F784" s="2" t="s">
-        <v>44</v>
+        <v>275</v>
       </c>
       <c r="G784" s="2" t="s">
         <v>9</v>
@@ -23994,47 +23929,47 @@
     </row>
     <row r="785" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A785" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C785" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D785" s="2" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="E785" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F785" s="2" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="G785" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H785" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I785" s="3"/>
       <c r="J785" s="3"/>
     </row>
     <row r="786" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A786" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C786" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D786" s="2" t="s">
-        <v>9</v>
+        <v>279</v>
       </c>
       <c r="E786" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F786" s="2" t="s">
         <v>9</v>
@@ -24043,26 +23978,26 @@
         <v>9</v>
       </c>
       <c r="H786" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I786" s="3"/>
       <c r="J786" s="3"/>
     </row>
     <row r="787" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A787" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C787" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D787" s="2" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="E787" s="2" t="s">
-        <v>9</v>
+        <v>327</v>
       </c>
       <c r="F787" s="2" t="s">
         <v>9</v>
@@ -24071,26 +24006,26 @@
         <v>9</v>
       </c>
       <c r="H787" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I787" s="3"/>
       <c r="J787" s="3"/>
     </row>
     <row r="788" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A788" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C788" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D788" s="2" t="s">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="E788" s="2" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="F788" s="2" t="s">
         <v>9</v>
@@ -24099,29 +24034,29 @@
         <v>9</v>
       </c>
       <c r="H788" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I788" s="3"/>
       <c r="J788" s="3"/>
     </row>
     <row r="789" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A789" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C789" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="E789" s="2" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="F789" s="2" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="G789" s="2" t="s">
         <v>9</v>
@@ -24134,22 +24069,22 @@
     </row>
     <row r="790" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A790" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C790" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c r="E790" s="2" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="F790" s="2" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="G790" s="2" t="s">
         <v>9</v>
@@ -24162,22 +24097,22 @@
     </row>
     <row r="791" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A791" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C791" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D791" s="2" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E791" s="2" t="s">
-        <v>500</v>
+        <v>13</v>
       </c>
       <c r="F791" s="2" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="G791" s="2" t="s">
         <v>9</v>
@@ -24190,22 +24125,22 @@
     </row>
     <row r="792" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A792" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C792" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>292</v>
+        <v>205</v>
       </c>
       <c r="E792" s="2" t="s">
-        <v>61</v>
+        <v>502</v>
       </c>
       <c r="F792" s="2" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="G792" s="2" t="s">
         <v>9</v>
@@ -24218,75 +24153,75 @@
     </row>
     <row r="793" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A793" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C793" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D793" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E793" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F793" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G793" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H793" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I793" s="3"/>
       <c r="J793" s="3"/>
     </row>
     <row r="794" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A794" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C794" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D794" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E794" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F794" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G794" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H794" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I794" s="3"/>
       <c r="J794" s="3"/>
     </row>
     <row r="795" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A795" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C795" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D795" s="2" t="s">
-        <v>9</v>
+        <v>478</v>
       </c>
       <c r="E795" s="2" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="F795" s="2" t="s">
         <v>9</v>
@@ -24295,32 +24230,32 @@
         <v>9</v>
       </c>
       <c r="H795" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I795" s="3"/>
       <c r="J795" s="3"/>
     </row>
     <row r="796" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A796" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C796" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D796" s="2" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="E796" s="2" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="F796" s="2" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="G796" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H796" s="2" t="s">
         <v>9</v>
@@ -24330,50 +24265,50 @@
     </row>
     <row r="797" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A797" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C797" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D797" s="2" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="E797" s="2" t="s">
-        <v>406</v>
+        <v>9</v>
       </c>
       <c r="F797" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="G797" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H797" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I797" s="3"/>
       <c r="J797" s="3"/>
     </row>
     <row r="798" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A798" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C798" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D798" s="2" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="E798" s="2" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="F798" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G798" s="2" t="s">
         <v>9</v>
@@ -24386,16 +24321,16 @@
     </row>
     <row r="799" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A799" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C799" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>9</v>
+        <v>503</v>
       </c>
       <c r="E799" s="2" t="s">
         <v>9</v>
@@ -24404,20 +24339,20 @@
         <v>9</v>
       </c>
       <c r="G799" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H799" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I799" s="3"/>
       <c r="J799" s="3"/>
     </row>
     <row r="800" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A800" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C800" s="2" t="s">
         <v>11</v>
@@ -24442,22 +24377,22 @@
     </row>
     <row r="801" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A801" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C801" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="E801" s="2" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="F801" s="2" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="G801" s="2" t="s">
         <v>9</v>
@@ -24470,19 +24405,19 @@
     </row>
     <row r="802" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A802" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C802" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D802" s="2" t="s">
-        <v>479</v>
+        <v>203</v>
       </c>
       <c r="E802" s="2" t="s">
-        <v>278</v>
+        <v>502</v>
       </c>
       <c r="F802" s="2" t="s">
         <v>9</v>
@@ -24498,22 +24433,22 @@
     </row>
     <row r="803" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A803" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C803" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D803" s="2" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="E803" s="2" t="s">
-        <v>21</v>
+        <v>329</v>
       </c>
       <c r="F803" s="2" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="G803" s="2" t="s">
         <v>9</v>
@@ -24526,22 +24461,22 @@
     </row>
     <row r="804" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A804" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C804" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="E804" s="2" t="s">
-        <v>336</v>
+        <v>28</v>
       </c>
       <c r="F804" s="2" t="s">
-        <v>9</v>
+        <v>442</v>
       </c>
       <c r="G804" s="2" t="s">
         <v>9</v>
@@ -24554,22 +24489,22 @@
     </row>
     <row r="805" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A805" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C805" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D805" s="2" t="s">
-        <v>274</v>
+        <v>58</v>
       </c>
       <c r="E805" s="2" t="s">
-        <v>13</v>
+        <v>506</v>
       </c>
       <c r="F805" s="2" t="s">
-        <v>275</v>
+        <v>9</v>
       </c>
       <c r="G805" s="2" t="s">
         <v>9</v>
@@ -24582,22 +24517,22 @@
     </row>
     <row r="806" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A806" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C806" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D806" s="2" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="E806" s="2" t="s">
-        <v>28</v>
+        <v>507</v>
       </c>
       <c r="F806" s="2" t="s">
-        <v>166</v>
+        <v>310</v>
       </c>
       <c r="G806" s="2" t="s">
         <v>9</v>
@@ -24610,19 +24545,19 @@
     </row>
     <row r="807" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A807" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C807" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D807" s="2" t="s">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="E807" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F807" s="2" t="s">
         <v>9</v>
@@ -24631,23 +24566,23 @@
         <v>9</v>
       </c>
       <c r="H807" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I807" s="3"/>
       <c r="J807" s="3"/>
     </row>
     <row r="808" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A808" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C808" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D808" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E808" s="2" t="s">
         <v>327</v>
@@ -24666,22 +24601,22 @@
     </row>
     <row r="809" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A809" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C809" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D809" s="2" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="E809" s="2" t="s">
-        <v>193</v>
+        <v>498</v>
       </c>
       <c r="F809" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G809" s="2" t="s">
         <v>9</v>
@@ -24694,22 +24629,22 @@
     </row>
     <row r="810" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A810" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C810" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D810" s="2" t="s">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c r="E810" s="2" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="F810" s="2" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="G810" s="2" t="s">
         <v>9</v>
@@ -24722,22 +24657,22 @@
     </row>
     <row r="811" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A811" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C811" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D811" s="2" t="s">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="E811" s="2" t="s">
-        <v>61</v>
+        <v>481</v>
       </c>
       <c r="F811" s="2" t="s">
-        <v>119</v>
+        <v>269</v>
       </c>
       <c r="G811" s="2" t="s">
         <v>9</v>
@@ -24750,22 +24685,22 @@
     </row>
     <row r="812" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A812" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C812" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D812" s="2" t="s">
-        <v>50</v>
+        <v>307</v>
       </c>
       <c r="E812" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="F812" s="2" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="G812" s="2" t="s">
         <v>9</v>
@@ -24778,22 +24713,22 @@
     </row>
     <row r="813" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A813" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C813" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D813" s="2" t="s">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="E813" s="2" t="s">
-        <v>503</v>
+        <v>406</v>
       </c>
       <c r="F813" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="G813" s="2" t="s">
         <v>9</v>
@@ -24806,10 +24741,10 @@
     </row>
     <row r="814" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A814" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C814" s="2" t="s">
         <v>62</v>
@@ -24834,22 +24769,22 @@
     </row>
     <row r="815" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A815" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C815" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D815" s="2" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="E815" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="F815" s="2" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="G815" s="2" t="s">
         <v>9</v>
@@ -24862,19 +24797,19 @@
     </row>
     <row r="816" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A816" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C816" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D816" s="2" t="s">
-        <v>479</v>
+        <v>219</v>
       </c>
       <c r="E816" s="2" t="s">
-        <v>193</v>
+        <v>498</v>
       </c>
       <c r="F816" s="2" t="s">
         <v>9</v>
@@ -24890,25 +24825,25 @@
     </row>
     <row r="817" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A817" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C817" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D817" s="2" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="E817" s="2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="F817" s="2" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="G817" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H817" s="2" t="s">
         <v>9</v>
@@ -24918,10 +24853,10 @@
     </row>
     <row r="818" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A818" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C818" s="2" t="s">
         <v>74</v>
@@ -24930,35 +24865,35 @@
         <v>9</v>
       </c>
       <c r="E818" s="2" t="s">
-        <v>9</v>
+        <v>285</v>
       </c>
       <c r="F818" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G818" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H818" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I818" s="3"/>
       <c r="J818" s="3"/>
     </row>
     <row r="819" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A819" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D819" s="2" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="E819" s="2" t="s">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="F819" s="2" t="s">
         <v>9</v>
@@ -24974,22 +24909,22 @@
     </row>
     <row r="820" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A820" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C820" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D820" s="2" t="s">
-        <v>504</v>
+        <v>50</v>
       </c>
       <c r="E820" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F820" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="G820" s="2" t="s">
         <v>33</v>
@@ -25002,10 +24937,10 @@
     </row>
     <row r="821" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A821" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C821" s="2" t="s">
         <v>11</v>
@@ -25030,22 +24965,22 @@
     </row>
     <row r="822" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A822" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C822" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D822" s="2" t="s">
-        <v>347</v>
+        <v>427</v>
       </c>
       <c r="E822" s="2" t="s">
-        <v>147</v>
+        <v>359</v>
       </c>
       <c r="F822" s="2" t="s">
-        <v>230</v>
+        <v>428</v>
       </c>
       <c r="G822" s="2" t="s">
         <v>9</v>
@@ -25058,22 +24993,22 @@
     </row>
     <row r="823" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A823" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C823" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D823" s="2" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="E823" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F823" s="2" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="G823" s="2" t="s">
         <v>9</v>
@@ -25086,50 +25021,50 @@
     </row>
     <row r="824" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A824" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C824" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D824" s="2" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
       <c r="E824" s="2" t="s">
-        <v>329</v>
+        <v>9</v>
       </c>
       <c r="F824" s="2" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="G824" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H824" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I824" s="3"/>
       <c r="J824" s="3"/>
     </row>
     <row r="825" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A825" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C825" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D825" s="2" t="s">
-        <v>441</v>
+        <v>134</v>
       </c>
       <c r="E825" s="2" t="s">
-        <v>28</v>
+        <v>510</v>
       </c>
       <c r="F825" s="2" t="s">
-        <v>442</v>
+        <v>135</v>
       </c>
       <c r="G825" s="2" t="s">
         <v>9</v>
@@ -25142,22 +25077,22 @@
     </row>
     <row r="826" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A826" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C826" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D826" s="2" t="s">
-        <v>58</v>
+        <v>512</v>
       </c>
       <c r="E826" s="2" t="s">
-        <v>507</v>
+        <v>290</v>
       </c>
       <c r="F826" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G826" s="2" t="s">
         <v>9</v>
@@ -25170,10 +25105,10 @@
     </row>
     <row r="827" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A827" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C827" s="2" t="s">
         <v>34</v>
@@ -25182,7 +25117,7 @@
         <v>309</v>
       </c>
       <c r="E827" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F827" s="2" t="s">
         <v>310</v>
@@ -25198,50 +25133,50 @@
     </row>
     <row r="828" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A828" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C828" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D828" s="2" t="s">
-        <v>9</v>
+        <v>313</v>
       </c>
       <c r="E828" s="2" t="s">
-        <v>9</v>
+        <v>285</v>
       </c>
       <c r="F828" s="2" t="s">
-        <v>9</v>
+        <v>314</v>
       </c>
       <c r="G828" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H828" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I828" s="3"/>
       <c r="J828" s="3"/>
     </row>
     <row r="829" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A829" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C829" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D829" s="2" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="E829" s="2" t="s">
-        <v>327</v>
+        <v>156</v>
       </c>
       <c r="F829" s="2" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G829" s="2" t="s">
         <v>9</v>
@@ -25254,25 +25189,25 @@
     </row>
     <row r="830" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A830" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C830" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D830" s="2" t="s">
-        <v>31</v>
+        <v>441</v>
       </c>
       <c r="E830" s="2" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="F830" s="2" t="s">
-        <v>32</v>
+        <v>442</v>
       </c>
       <c r="G830" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H830" s="2" t="s">
         <v>9</v>
@@ -25282,22 +25217,22 @@
     </row>
     <row r="831" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A831" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C831" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D831" s="2" t="s">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="E831" s="2" t="s">
-        <v>285</v>
+        <v>498</v>
       </c>
       <c r="F831" s="2" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="G831" s="2" t="s">
         <v>9</v>
@@ -25310,22 +25245,22 @@
     </row>
     <row r="832" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A832" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C832" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D832" s="2" t="s">
-        <v>292</v>
+        <v>137</v>
       </c>
       <c r="E832" s="2" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="F832" s="2" t="s">
-        <v>269</v>
+        <v>138</v>
       </c>
       <c r="G832" s="2" t="s">
         <v>9</v>
@@ -25338,22 +25273,22 @@
     </row>
     <row r="833" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A833" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C833" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D833" s="2" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="E833" s="2" t="s">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="F833" s="2" t="s">
-        <v>131</v>
+        <v>383</v>
       </c>
       <c r="G833" s="2" t="s">
         <v>9</v>
@@ -25366,25 +25301,25 @@
     </row>
     <row r="834" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A834" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C834" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D834" s="2" t="s">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="E834" s="2" t="s">
-        <v>406</v>
+        <v>9</v>
       </c>
       <c r="F834" s="2" t="s">
-        <v>65</v>
+        <v>209</v>
       </c>
       <c r="G834" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H834" s="2" t="s">
         <v>9</v>
@@ -25394,78 +25329,78 @@
     </row>
     <row r="835" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A835" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C835" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D835" s="2" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="E835" s="2" t="s">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="F835" s="2" t="s">
-        <v>9</v>
+        <v>383</v>
       </c>
       <c r="G835" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H835" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I835" s="3"/>
       <c r="J835" s="3"/>
     </row>
     <row r="836" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A836" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C836" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D836" s="2" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="E836" s="2" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="F836" s="2" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="G836" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H836" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I836" s="3"/>
       <c r="J836" s="3"/>
     </row>
     <row r="837" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A837" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C837" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D837" s="2" t="s">
-        <v>219</v>
+        <v>53</v>
       </c>
       <c r="E837" s="2" t="s">
-        <v>499</v>
+        <v>411</v>
       </c>
       <c r="F837" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G837" s="2" t="s">
         <v>9</v>
@@ -25478,22 +25413,22 @@
     </row>
     <row r="838" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A838" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C838" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D838" s="2" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="E838" s="2" t="s">
-        <v>61</v>
+        <v>513</v>
       </c>
       <c r="F838" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="G838" s="2" t="s">
         <v>9</v>
@@ -25506,22 +25441,22 @@
     </row>
     <row r="839" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A839" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C839" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D839" s="2" t="s">
-        <v>9</v>
+        <v>399</v>
       </c>
       <c r="E839" s="2" t="s">
         <v>285</v>
       </c>
       <c r="F839" s="2" t="s">
-        <v>33</v>
+        <v>439</v>
       </c>
       <c r="G839" s="2" t="s">
         <v>9</v>
@@ -25534,22 +25469,22 @@
     </row>
     <row r="840" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A840" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C840" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D840" s="2" t="s">
-        <v>58</v>
+        <v>514</v>
       </c>
       <c r="E840" s="2" t="s">
-        <v>280</v>
+        <v>375</v>
       </c>
       <c r="F840" s="2" t="s">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="G840" s="2" t="s">
         <v>9</v>
@@ -25562,22 +25497,22 @@
     </row>
     <row r="841" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A841" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C841" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D841" s="2" t="s">
-        <v>50</v>
+        <v>515</v>
       </c>
       <c r="E841" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F841" s="2" t="s">
-        <v>51</v>
+        <v>516</v>
       </c>
       <c r="G841" s="2" t="s">
         <v>33</v>
@@ -25590,10 +25525,10 @@
     </row>
     <row r="842" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A842" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C842" s="2" t="s">
         <v>11</v>
@@ -25618,22 +25553,22 @@
     </row>
     <row r="843" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A843" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C843" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D843" s="2" t="s">
-        <v>427</v>
+        <v>512</v>
       </c>
       <c r="E843" s="2" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="F843" s="2" t="s">
-        <v>428</v>
+        <v>33</v>
       </c>
       <c r="G843" s="2" t="s">
         <v>9</v>
@@ -25646,22 +25581,22 @@
     </row>
     <row r="844" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A844" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C844" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D844" s="2" t="s">
-        <v>134</v>
+        <v>519</v>
       </c>
       <c r="E844" s="2" t="s">
-        <v>503</v>
+        <v>301</v>
       </c>
       <c r="F844" s="2" t="s">
-        <v>135</v>
+        <v>511</v>
       </c>
       <c r="G844" s="2" t="s">
         <v>9</v>
@@ -25674,50 +25609,50 @@
     </row>
     <row r="845" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A845" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C845" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D845" s="2" t="s">
-        <v>9</v>
+        <v>494</v>
       </c>
       <c r="E845" s="2" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="F845" s="2" t="s">
-        <v>9</v>
+        <v>398</v>
       </c>
       <c r="G845" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H845" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I845" s="3"/>
       <c r="J845" s="3"/>
     </row>
     <row r="846" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A846" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C846" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D846" s="2" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="E846" s="2" t="s">
-        <v>511</v>
+        <v>377</v>
       </c>
       <c r="F846" s="2" t="s">
-        <v>135</v>
+        <v>269</v>
       </c>
       <c r="G846" s="2" t="s">
         <v>9</v>
@@ -25730,22 +25665,22 @@
     </row>
     <row r="847" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A847" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C847" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D847" s="2" t="s">
-        <v>513</v>
+        <v>433</v>
       </c>
       <c r="E847" s="2" t="s">
-        <v>290</v>
+        <v>520</v>
       </c>
       <c r="F847" s="2" t="s">
-        <v>33</v>
+        <v>434</v>
       </c>
       <c r="G847" s="2" t="s">
         <v>9</v>
@@ -25758,22 +25693,22 @@
     </row>
     <row r="848" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A848" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C848" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D848" s="2" t="s">
-        <v>309</v>
+        <v>521</v>
       </c>
       <c r="E848" s="2" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="F848" s="2" t="s">
-        <v>310</v>
+        <v>522</v>
       </c>
       <c r="G848" s="2" t="s">
         <v>9</v>
@@ -25786,53 +25721,53 @@
     </row>
     <row r="849" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A849" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C849" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D849" s="2" t="s">
-        <v>313</v>
+        <v>9</v>
       </c>
       <c r="E849" s="2" t="s">
-        <v>285</v>
+        <v>9</v>
       </c>
       <c r="F849" s="2" t="s">
-        <v>314</v>
+        <v>9</v>
       </c>
       <c r="G849" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H849" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I849" s="3"/>
       <c r="J849" s="3"/>
     </row>
     <row r="850" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A850" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C850" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D850" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E850" s="2" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="F850" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="G850" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H850" s="2" t="s">
         <v>9</v>
@@ -25842,50 +25777,50 @@
     </row>
     <row r="851" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A851" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C851" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D851" s="2" t="s">
-        <v>441</v>
+        <v>9</v>
       </c>
       <c r="E851" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F851" s="2" t="s">
-        <v>442</v>
+        <v>9</v>
       </c>
       <c r="G851" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H851" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I851" s="3"/>
       <c r="J851" s="3"/>
     </row>
     <row r="852" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A852" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C852" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D852" s="2" t="s">
-        <v>214</v>
+        <v>523</v>
       </c>
       <c r="E852" s="2" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="F852" s="2" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="G852" s="2" t="s">
         <v>9</v>
@@ -25898,22 +25833,22 @@
     </row>
     <row r="853" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A853" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C853" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D853" s="2" t="s">
-        <v>137</v>
+        <v>523</v>
       </c>
       <c r="E853" s="2" t="s">
-        <v>499</v>
+        <v>415</v>
       </c>
       <c r="F853" s="2" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="G853" s="2" t="s">
         <v>9</v>
@@ -25926,22 +25861,22 @@
     </row>
     <row r="854" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A854" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C854" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D854" s="2" t="s">
-        <v>251</v>
+        <v>523</v>
       </c>
       <c r="E854" s="2" t="s">
-        <v>323</v>
+        <v>411</v>
       </c>
       <c r="F854" s="2" t="s">
-        <v>383</v>
+        <v>232</v>
       </c>
       <c r="G854" s="2" t="s">
         <v>9</v>
@@ -25954,50 +25889,50 @@
     </row>
     <row r="855" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A855" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C855" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D855" s="2" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
       <c r="E855" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F855" s="2" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="G855" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H855" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I855" s="3"/>
       <c r="J855" s="3"/>
     </row>
     <row r="856" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A856" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C856" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D856" s="2" t="s">
-        <v>251</v>
+        <v>318</v>
       </c>
       <c r="E856" s="2" t="s">
-        <v>262</v>
+        <v>413</v>
       </c>
       <c r="F856" s="2" t="s">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="G856" s="2" t="s">
         <v>9</v>
@@ -26010,50 +25945,50 @@
     </row>
     <row r="857" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A857" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C857" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D857" s="2" t="s">
-        <v>9</v>
+        <v>309</v>
       </c>
       <c r="E857" s="2" t="s">
-        <v>9</v>
+        <v>375</v>
       </c>
       <c r="F857" s="2" t="s">
-        <v>9</v>
+        <v>310</v>
       </c>
       <c r="G857" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H857" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I857" s="3"/>
       <c r="J857" s="3"/>
     </row>
     <row r="858" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A858" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C858" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D858" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="E858" s="2" t="s">
-        <v>411</v>
+        <v>340</v>
       </c>
       <c r="F858" s="2" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="G858" s="2" t="s">
         <v>9</v>
@@ -26066,25 +26001,25 @@
     </row>
     <row r="859" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A859" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C859" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D859" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E859" s="2" t="s">
-        <v>514</v>
+        <v>268</v>
       </c>
       <c r="F859" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G859" s="2" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="H859" s="2" t="s">
         <v>9</v>
@@ -26094,22 +26029,22 @@
     </row>
     <row r="860" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A860" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C860" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D860" s="2" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="E860" s="2" t="s">
-        <v>285</v>
+        <v>525</v>
       </c>
       <c r="F860" s="2" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="G860" s="2" t="s">
         <v>9</v>
@@ -26122,22 +26057,22 @@
     </row>
     <row r="861" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A861" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C861" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D861" s="2" t="s">
-        <v>515</v>
+        <v>88</v>
       </c>
       <c r="E861" s="2" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="F861" s="2" t="s">
-        <v>437</v>
+        <v>89</v>
       </c>
       <c r="G861" s="2" t="s">
         <v>9</v>
@@ -26150,22 +26085,22 @@
     </row>
     <row r="862" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A862" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C862" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D862" s="2" t="s">
-        <v>516</v>
+        <v>104</v>
       </c>
       <c r="E862" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F862" s="2" t="s">
-        <v>517</v>
+        <v>105</v>
       </c>
       <c r="G862" s="2" t="s">
         <v>33</v>
@@ -26178,10 +26113,10 @@
     </row>
     <row r="863" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A863" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C863" s="2" t="s">
         <v>11</v>
@@ -26206,22 +26141,22 @@
     </row>
     <row r="864" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A864" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C864" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D864" s="2" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="E864" s="2" t="s">
-        <v>340</v>
+        <v>26</v>
       </c>
       <c r="F864" s="2" t="s">
-        <v>33</v>
+        <v>453</v>
       </c>
       <c r="G864" s="2" t="s">
         <v>9</v>
@@ -26234,22 +26169,22 @@
     </row>
     <row r="865" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A865" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C865" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D865" s="2" t="s">
-        <v>520</v>
+        <v>206</v>
       </c>
       <c r="E865" s="2" t="s">
-        <v>301</v>
+        <v>26</v>
       </c>
       <c r="F865" s="2" t="s">
-        <v>512</v>
+        <v>207</v>
       </c>
       <c r="G865" s="2" t="s">
         <v>9</v>
@@ -26262,78 +26197,78 @@
     </row>
     <row r="866" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A866" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C866" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D866" s="2" t="s">
-        <v>495</v>
+        <v>9</v>
       </c>
       <c r="E866" s="2" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="F866" s="2" t="s">
-        <v>398</v>
+        <v>9</v>
       </c>
       <c r="G866" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H866" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I866" s="3"/>
       <c r="J866" s="3"/>
     </row>
     <row r="867" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A867" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C867" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D867" s="2" t="s">
-        <v>292</v>
+        <v>9</v>
       </c>
       <c r="E867" s="2" t="s">
-        <v>377</v>
+        <v>9</v>
       </c>
       <c r="F867" s="2" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="G867" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H867" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I867" s="3"/>
       <c r="J867" s="3"/>
     </row>
     <row r="868" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A868" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C868" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D868" s="2" t="s">
-        <v>433</v>
+        <v>264</v>
       </c>
       <c r="E868" s="2" t="s">
-        <v>521</v>
+        <v>285</v>
       </c>
       <c r="F868" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="G868" s="2" t="s">
         <v>9</v>
@@ -26346,81 +26281,81 @@
     </row>
     <row r="869" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A869" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C869" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D869" s="2" t="s">
-        <v>522</v>
+        <v>9</v>
       </c>
       <c r="E869" s="2" t="s">
-        <v>482</v>
+        <v>9</v>
       </c>
       <c r="F869" s="2" t="s">
-        <v>523</v>
+        <v>9</v>
       </c>
       <c r="G869" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H869" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I869" s="3"/>
       <c r="J869" s="3"/>
     </row>
     <row r="870" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A870" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C870" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D870" s="2" t="s">
-        <v>9</v>
+        <v>395</v>
       </c>
       <c r="E870" s="2" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="F870" s="2" t="s">
-        <v>9</v>
+        <v>460</v>
       </c>
       <c r="G870" s="2" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="H870" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I870" s="3"/>
       <c r="J870" s="3"/>
     </row>
     <row r="871" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A871" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C871" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D871" s="2" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E871" s="2" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="F871" s="2" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="G871" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H871" s="2" t="s">
         <v>9</v>
@@ -26430,19 +26365,19 @@
     </row>
     <row r="872" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A872" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C872" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D872" s="2" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="E872" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F872" s="2" t="s">
         <v>9</v>
@@ -26451,29 +26386,29 @@
         <v>9</v>
       </c>
       <c r="H872" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I872" s="3"/>
       <c r="J872" s="3"/>
     </row>
     <row r="873" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A873" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C873" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D873" s="2" t="s">
-        <v>524</v>
+        <v>348</v>
       </c>
       <c r="E873" s="2" t="s">
-        <v>525</v>
+        <v>43</v>
       </c>
       <c r="F873" s="2" t="s">
-        <v>232</v>
+        <v>9</v>
       </c>
       <c r="G873" s="2" t="s">
         <v>9</v>
@@ -26486,50 +26421,50 @@
     </row>
     <row r="874" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A874" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C874" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D874" s="2" t="s">
-        <v>524</v>
+        <v>9</v>
       </c>
       <c r="E874" s="2" t="s">
-        <v>415</v>
+        <v>9</v>
       </c>
       <c r="F874" s="2" t="s">
-        <v>232</v>
+        <v>9</v>
       </c>
       <c r="G874" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H874" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I874" s="3"/>
       <c r="J874" s="3"/>
     </row>
     <row r="875" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A875" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C875" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D875" s="2" t="s">
-        <v>524</v>
+        <v>12</v>
       </c>
       <c r="E875" s="2" t="s">
-        <v>411</v>
+        <v>321</v>
       </c>
       <c r="F875" s="2" t="s">
-        <v>232</v>
+        <v>9</v>
       </c>
       <c r="G875" s="2" t="s">
         <v>9</v>
@@ -26542,78 +26477,78 @@
     </row>
     <row r="876" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A876" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C876" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D876" s="2" t="s">
-        <v>9</v>
+        <v>366</v>
       </c>
       <c r="E876" s="2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="F876" s="2" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="G876" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H876" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I876" s="3"/>
       <c r="J876" s="3"/>
     </row>
     <row r="877" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A877" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C877" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D877" s="2" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="E877" s="2" t="s">
-        <v>413</v>
+        <v>9</v>
       </c>
       <c r="F877" s="2" t="s">
-        <v>320</v>
+        <v>9</v>
       </c>
       <c r="G877" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H877" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I877" s="3"/>
       <c r="J877" s="3"/>
     </row>
     <row r="878" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A878" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C878" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D878" s="2" t="s">
-        <v>309</v>
+        <v>93</v>
       </c>
       <c r="E878" s="2" t="s">
-        <v>375</v>
+        <v>475</v>
       </c>
       <c r="F878" s="2" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="G878" s="2" t="s">
         <v>9</v>
@@ -26626,22 +26561,22 @@
     </row>
     <row r="879" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A879" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C879" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D879" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E879" s="2" t="s">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="F879" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G879" s="2" t="s">
         <v>9</v>
@@ -26654,78 +26589,78 @@
     </row>
     <row r="880" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A880" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C880" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D880" s="2" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="E880" s="2" t="s">
-        <v>268</v>
+        <v>9</v>
       </c>
       <c r="F880" s="2" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="G880" s="2" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="H880" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I880" s="3"/>
       <c r="J880" s="3"/>
     </row>
     <row r="881" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A881" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C881" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D881" s="2" t="s">
-        <v>380</v>
+        <v>9</v>
       </c>
       <c r="E881" s="2" t="s">
-        <v>526</v>
+        <v>9</v>
       </c>
       <c r="F881" s="2" t="s">
-        <v>381</v>
+        <v>9</v>
       </c>
       <c r="G881" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H881" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I881" s="3"/>
       <c r="J881" s="3"/>
     </row>
     <row r="882" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A882" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C882" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D882" s="2" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E882" s="2" t="s">
-        <v>340</v>
+        <v>193</v>
       </c>
       <c r="F882" s="2" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="G882" s="2" t="s">
         <v>9</v>
@@ -26738,22 +26673,22 @@
     </row>
     <row r="883" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A883" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C883" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D883" s="2" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="E883" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F883" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="G883" s="2" t="s">
         <v>33</v>
@@ -26763,594 +26698,6 @@
       </c>
       <c r="I883" s="3"/>
       <c r="J883" s="3"/>
-    </row>
-    <row r="884" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A884" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B884" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C884" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D884" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E884" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F884" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G884" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H884" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I884" s="3"/>
-      <c r="J884" s="3"/>
-    </row>
-    <row r="885" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A885" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B885" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C885" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D885" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="E885" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F885" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="G885" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H885" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I885" s="3"/>
-      <c r="J885" s="3"/>
-    </row>
-    <row r="886" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A886" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B886" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C886" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D886" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E886" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F886" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G886" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H886" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I886" s="3"/>
-      <c r="J886" s="3"/>
-    </row>
-    <row r="887" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A887" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B887" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C887" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D887" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E887" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F887" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G887" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H887" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I887" s="3"/>
-      <c r="J887" s="3"/>
-    </row>
-    <row r="888" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A888" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B888" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C888" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D888" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E888" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F888" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G888" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H888" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I888" s="3"/>
-      <c r="J888" s="3"/>
-    </row>
-    <row r="889" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A889" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B889" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C889" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D889" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E889" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F889" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G889" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H889" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I889" s="3"/>
-      <c r="J889" s="3"/>
-    </row>
-    <row r="890" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A890" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B890" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C890" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D890" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E890" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F890" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G890" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H890" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I890" s="3"/>
-      <c r="J890" s="3"/>
-    </row>
-    <row r="891" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A891" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B891" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C891" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D891" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E891" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F891" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G891" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H891" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I891" s="3"/>
-      <c r="J891" s="3"/>
-    </row>
-    <row r="892" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A892" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B892" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C892" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D892" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E892" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F892" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G892" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H892" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I892" s="3"/>
-      <c r="J892" s="3"/>
-    </row>
-    <row r="893" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A893" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B893" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C893" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D893" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E893" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F893" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G893" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H893" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I893" s="3"/>
-      <c r="J893" s="3"/>
-    </row>
-    <row r="894" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A894" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B894" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C894" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D894" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E894" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F894" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G894" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H894" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I894" s="3"/>
-      <c r="J894" s="3"/>
-    </row>
-    <row r="895" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A895" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B895" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C895" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D895" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E895" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F895" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G895" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H895" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I895" s="3"/>
-      <c r="J895" s="3"/>
-    </row>
-    <row r="896" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A896" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B896" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C896" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D896" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E896" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F896" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G896" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H896" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I896" s="3"/>
-      <c r="J896" s="3"/>
-    </row>
-    <row r="897" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A897" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B897" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C897" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D897" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E897" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F897" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G897" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H897" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I897" s="3"/>
-      <c r="J897" s="3"/>
-    </row>
-    <row r="898" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A898" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B898" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C898" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D898" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E898" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F898" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G898" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H898" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I898" s="3"/>
-      <c r="J898" s="3"/>
-    </row>
-    <row r="899" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A899" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B899" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C899" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D899" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E899" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F899" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G899" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H899" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I899" s="3"/>
-      <c r="J899" s="3"/>
-    </row>
-    <row r="900" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A900" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B900" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C900" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D900" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E900" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F900" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G900" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H900" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I900" s="3"/>
-      <c r="J900" s="3"/>
-    </row>
-    <row r="901" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A901" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B901" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C901" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D901" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E901" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F901" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G901" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H901" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I901" s="3"/>
-      <c r="J901" s="3"/>
-    </row>
-    <row r="902" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A902" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B902" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C902" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D902" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E902" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F902" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G902" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H902" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I902" s="3"/>
-      <c r="J902" s="3"/>
-    </row>
-    <row r="903" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A903" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B903" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C903" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D903" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E903" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F903" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G903" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H903" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I903" s="3"/>
-      <c r="J903" s="3"/>
-    </row>
-    <row r="904" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A904" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B904" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C904" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D904" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E904" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F904" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G904" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H904" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I904" s="3"/>
-      <c r="J904" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
